--- a/Website/Platform/Content/Content.xlsx
+++ b/Website/Platform/Content/Content.xlsx
@@ -1049,22 +1049,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
